--- a/模板/智能部门会议纪要.xlsx
+++ b/模板/智能部门会议纪要.xlsx
@@ -7,10 +7,12 @@
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
-    <sheet name="0212" sheetId="1" r:id="rId1"/>
-    <sheet name="0210" sheetId="2" r:id="rId2"/>
-    <sheet name="0208" sheetId="3" r:id="rId3"/>
-    <sheet name="0207" sheetId="4" r:id="rId4"/>
+    <sheet name="0217" sheetId="1" r:id="rId1"/>
+    <sheet name="0214" sheetId="2" r:id="rId2"/>
+    <sheet name="0212" sheetId="3" r:id="rId3"/>
+    <sheet name="0210" sheetId="4" r:id="rId4"/>
+    <sheet name="0208" sheetId="5" r:id="rId5"/>
+    <sheet name="0207" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -19,61 +21,469 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
+    <t>关于《1.0版本遗留问题和2.0产品规划思路》会议纪要</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>2025年2月17日 PM 16:30-19:00</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>前台大会议室</t>
+  </si>
+  <si>
+    <t>参会人员</t>
+  </si>
+  <si>
+    <t>王总，梁里旭，谢艳伟，田丰喜，熊岳，黎小红，严​洪​波，张升，向程，胡婷，张敏，曾小红，谭桂兴，周总，胡鑫鑫，刘明才</t>
+  </si>
+  <si>
+    <t>会议记录人员</t>
+  </si>
+  <si>
+    <t>胡婷</t>
+  </si>
+  <si>
+    <t>会议重点问题</t>
+  </si>
+  <si>
+    <t>1.0版本遗留问题和2.0产品规划思路</t>
+  </si>
+  <si/>
+  <si>
+    <t>需求及问题讨论</t>
+  </si>
+  <si>
+    <t>问题分析</t>
+  </si>
+  <si>
+    <t>解决办法</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>安装
+</t>
+  </si>
+  <si>
+    <t>语言沟通</t>
+  </si>
+  <si>
+    <t>上门安装
+（语言不通、不接电话等）</t>
+  </si>
+  <si>
+    <t>本地化+AI大模型，具体方案会后讨论</t>
+  </si>
+  <si>
+    <t>梁工+熊工</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>使用培训（用户使用培训）</t>
+  </si>
+  <si>
+    <t>app/小程序增加文字/呼叫入口</t>
+  </si>
+  <si>
+    <t>售后</t>
+  </si>
+  <si>
+    <t>安装售后本地化</t>
+  </si>
+  <si>
+    <t>在线率</t>
+  </si>
+  <si>
+    <t>系统判断+现场查看或更换（跑腿服务）</t>
+  </si>
+  <si>
+    <t>技术负责人+梁工</t>
+  </si>
+  <si>
+    <t>设备故障</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">系统判断+现场查看或更换（跑腿服务）</t>
+    </r>
+  </si>
+  <si>
+    <t>完善</t>
+  </si>
+  <si>
+    <t>老人频繁更换位置占90%</t>
+  </si>
+  <si>
+    <t>考虑二次安装</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">遗留问题，专项讨论</t>
+    </r>
+  </si>
+  <si>
+    <t>严工</t>
+  </si>
+  <si>
+    <t>3月初</t>
+  </si>
+  <si>
+    <t>影响在线率</t>
+  </si>
+  <si>
+    <t>系统/终端增加自检机制（断电、断网、无流量等）</t>
+  </si>
+  <si>
+    <t>技术负责人</t>
+  </si>
+  <si>
+    <t>房屋未装修未吊顶占70%</t>
+  </si>
+  <si>
+    <t>高度超出范围影响跌倒灵敏度</t>
+  </si>
+  <si>
+    <t>考虑二次安装问题</t>
+  </si>
+  <si>
+    <t>发货前确认安装环境是否符合设备要求（网络、吊顶等）</t>
+  </si>
+  <si>
+    <t>网络问题占30%</t>
+  </si>
+  <si>
+    <t>4G信号差</t>
+  </si>
+  <si>
+    <t>2.0版本WiFi/4G兼容，4G定位问题；eSIM卡和物理卡兼容</t>
+  </si>
+  <si>
+    <t>没有WIFI</t>
+  </si>
+  <si>
+    <t>误判问题</t>
+  </si>
+  <si>
+    <t>跌倒误判</t>
+  </si>
+  <si>
+    <t>遗留问题，专项讨论</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>物联网卡</t>
+  </si>
+  <si>
+    <t>联网不稳定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">需要了解：卡的类别（NB/Cat.1/Cat.4）,卡的类型（车规级/工业级/消费级），制作厂商， 定向（不同地区是否有价格区别），贴片卡与插卡拔区别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">遗留问题，专项讨论</t>
+    </r>
+  </si>
+  <si>
+    <t>梁工</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>生产测试</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">考虑做一个简单自动化测试软件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">规划自动化测试功能（支持研发&amp;生产&amp;售后）</t>
+    </r>
+  </si>
+  <si>
+    <t>谢工</t>
+  </si>
+  <si>
+    <t>长期（每2周输出阶段性结果）</t>
+  </si>
+  <si>
+    <t>系统测试</t>
+  </si>
+  <si>
+    <t>bug提测存在结果跟进欠缺</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">希望bug提测需要跟进修复进度及结果，严重bug最好有分析结论
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">业务流程构建（需评审）</t>
+    </r>
+  </si>
+  <si>
+    <t>PC端</t>
+  </si>
+  <si>
+    <t>用户端</t>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>稳定性差</t>
+  </si>
+  <si>
+    <t>设备出现反复重启，后台显示离线</t>
+  </si>
+  <si>
+    <t>重新设计架构（需评审）</t>
+  </si>
+  <si>
+    <t>熊工</t>
+  </si>
+  <si>
+    <t>系统架构</t>
+  </si>
+  <si>
+    <t>软件版本发布</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">系统升级工作统一由测试人员负责，只能在每周二进行升级操作。强调任何升级行为都必须提前提交申请，详细说明升级内容、目的、预期效果以及可能对现有系统造成的影响等关键信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">业务流程构建（需评审）</t>
+    </r>
+  </si>
+  <si>
+    <t>APP
+小程序</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>用户端与PC端在/离线经常出现显示不一至</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">后台、设备、PC端、用户端握手
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">业务流程构建，后端牵头（需评审）</t>
+    </r>
+  </si>
+  <si>
+    <t>兼容性</t>
+  </si>
+  <si>
+    <t>安卓版本兼容性问题</t>
+  </si>
+  <si>
+    <t>人员招聘（安卓兼容主流机型top10）</t>
+  </si>
+  <si>
+    <t>王总</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>2C销售</t>
+  </si>
+  <si>
+    <t>多渠道销售2C试点</t>
+  </si>
+  <si>
+    <t>深圳试点</t>
+  </si>
+  <si>
+    <t>3月底</t>
+  </si>
+  <si>
+    <t>2.0摄像头</t>
+  </si>
+  <si>
+    <t>摄像头服务器</t>
+  </si>
+  <si>
+    <t>摄像头阿里云服务器申请流程</t>
+  </si>
+  <si>
+    <t>今天提交申请流程，2/17完成</t>
+  </si>
+  <si>
+    <t>谭工</t>
+  </si>
+  <si>
+    <t>摄像头样机</t>
+  </si>
+  <si>
+    <t>4月展会展示样机</t>
+  </si>
+  <si>
+    <t>1，第一阶段：选合作方（做外单）提供整机，云端和客户端接入我们系统
+2，第二阶段：组网等合作定制开发</t>
+  </si>
+  <si>
+    <t>会后制定计划</t>
+  </si>
+  <si>
+    <t>关于《设备历史事件分表方案评审讨论》会议纪要</t>
+  </si>
+  <si>
+    <t>2025年2月14日 AM 9:30-10:00</t>
+  </si>
+  <si>
+    <t>智能办公室对面</t>
+  </si>
+  <si>
+    <t>梁里旭，何志强，谢艳伟，田丰喜，熊岳，梁颖琪，黎小红</t>
+  </si>
+  <si>
+    <t>黎小红</t>
+  </si>
+  <si>
+    <t>设备历史事件分表方案评审讨论</t>
+  </si>
+  <si>
+    <t>最新完成进展</t>
+  </si>
+  <si>
+    <t>负责测试人员</t>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+  </si>
+  <si>
+    <t>数据过多，后端服务器压力大，数据加载不出来</t>
+  </si>
+  <si>
+    <t>需要将设备历史事件进行数据库分表处理</t>
+  </si>
+  <si>
+    <t>1、将⾼频使⽤的当前事件存储在当前热表中，其它历史数据存储在备份历史表中。事件通过Kafka消息过来后直接存储在当前热表中，每条
+事件记录都有⼀个时间字段；采⽤⼀个定任务的⽅式将当前热表中的数据定时迁移到备份历史表中。预计完成优化后可承受10000台设备</t>
+  </si>
+  <si>
+    <t>熊岳/何志强</t>
+  </si>
+  <si>
+    <t>谢艳伟/田丰喜</t>
+  </si>
+  <si>
+    <t>2、将导致设备离线的同步同步时钟业务 和其它业务分开处理</t>
+  </si>
+  <si>
     <t>关于《V1.0版本稳定性方案讨论》会议纪要</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
     <t>2025年2月12日 AM 09:00-10:30</t>
   </si>
   <si>
-    <t>地点</t>
-  </si>
-  <si>
-    <t>智能办公室对面</t>
-  </si>
-  <si>
-    <t>参会人员</t>
-  </si>
-  <si>
     <t>梁里旭，胡婷，何志强，谭桂兴，冯宾远，谢艳伟，田丰喜，熊岳，梁颖琪，黎小红</t>
   </si>
   <si>
-    <t>会议记录人员</t>
-  </si>
-  <si>
-    <t>黎小红</t>
-  </si>
-  <si>
-    <t>会议重点问题</t>
-  </si>
-  <si>
     <t>V1.0版本稳定性问题及实现方案讨论</t>
-  </si>
-  <si>
-    <t>需求及问题讨论</t>
-  </si>
-  <si>
-    <t>问题分析</t>
-  </si>
-  <si>
-    <t>解决办法</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>最新完成进展</t>
-  </si>
-  <si>
-    <t>负责测试人员</t>
-  </si>
-  <si>
-    <t>实际完成时间</t>
   </si>
   <si>
     <t>房间显示有人，但一直无进出的行为记录</t>
@@ -92,10 +502,10 @@
     <t>2月12日下班前给出解决方案</t>
   </si>
   <si>
+    <t>已给方案</t>
+  </si>
+  <si>
     <t>年前安装的设备经常掉线</t>
-  </si>
-  <si>
-    <t>数据过多，后端服务器压力大，数据加载不出来</t>
   </si>
   <si>
     <r>
@@ -206,13 +616,13 @@
 3、增加20-30套老化测试设备到测试环境模拟真实场景</t>
   </si>
   <si>
-    <t>谢艳伟/田丰喜</t>
-  </si>
-  <si>
     <t>第三条2月12日
 1、2条持续保持</t>
   </si>
   <si>
+    <t>第三条已做完</t>
+  </si>
+  <si>
     <t>关于《V2.0版本摄像头实现方案讨论》会议纪要</t>
   </si>
   <si>
@@ -220,9 +630,6 @@
   </si>
   <si>
     <t>梁里旭，胡婷，向程，何志强，谭桂兴，冯宾远，谢艳伟，田丰喜，张升，熊岳</t>
-  </si>
-  <si>
-    <t>胡婷</t>
   </si>
   <si>
     <t>V2.0版本摄像头实现方案讨论</t>
@@ -586,7 +993,9 @@
 持续跟进原厂，争取一周内拿到</t>
   </si>
   <si>
-    <t>周末原厂放假，下周一持续跟进</t>
+    <t>1.原厂和代理商推荐的方案商因未走商务，不支持再提供开发板和后续服务；
+2.备份的成品供货商2裸板和2成品预计下周内提供(2/14付款，预计18号收到裸板，21号收到成品)
+3.替代供货商持续寻源和了解市场行情</t>
   </si>
   <si>
     <t>寻源看能否找到备份先调试功能</t>
@@ -597,7 +1006,8 @@
   <si>
     <t>实际情况:
 1.市面T41方案板子与我方定制款不同，不能直接拿来用；
-2.持续寻源</t>
+2.此前对接的方案商需要走商务后才可继续支持；
+3.备份成品供货从裸板和成品已购买合计4套，预计下周内收到</t>
   </si>
   <si>
     <t>硬件约谈</t>
@@ -612,7 +1022,7 @@
     <t>梁里旭/张敏</t>
   </si>
   <si>
-    <t>已约2/8下午面谈</t>
+    <t>已约2/8下午面谈，完成面谈，结果确认不符合要求</t>
   </si>
   <si>
     <t>功能测试调试</t>
@@ -638,7 +1048,8 @@
   <si>
     <t>实际情况:
 1.原约谈供应商要正式订单后才会提供产测软件明细，未合作前不提供；
-2.持续与新成品供货商联络对接和索要</t>
+2.备份供货商的标准在实际17~22号之后拿到成品后再对接工厂产测软件标准，我方可用来参考和改善；
+3.符合要求供应商持续寻源</t>
   </si>
   <si>
     <t>WIFI，APP等交互流程文档</t>
@@ -759,11 +1170,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m"/>
-    <numFmt numFmtId="165" formatCode="yyyy"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="m月d日"/>
+    <numFmt numFmtId="165" formatCode="m"/>
+    <numFmt numFmtId="166" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,13 +1270,34 @@
       <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
     </font>
     <font>
@@ -872,18 +1305,10 @@
       <name val="宋体"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="等线"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="等线"/>
     </font>
@@ -891,7 +1316,10 @@
       <sz val="9"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
     </font>
     <font>
       <b/>
@@ -900,6 +1328,32 @@
       <name val="等线"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
     </font>
@@ -934,6 +1388,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
     </font>
     <font>
       <sz val="10"/>
@@ -996,7 +1455,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1007,9 +1468,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1095,15 +1554,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1121,6 +1571,15 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1146,7 +1605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,39 +1645,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,6 +1753,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1317,43 +1785,85 @@
     </xf>
     <xf numFmtId="58" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center"/>
     </xf>
@@ -1369,16 +1879,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1390,74 +1912,89 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1465,25 +2002,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1492,40 +2047,148 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1885,6 +2548,771 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.9990234375" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="18.75" customWidth="1" style="96"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="51.75" customWidth="1" style="149"/>
+    <col min="5" max="5" width="19.7490234375" customWidth="1"/>
+    <col min="6" max="6" width="45.873046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1">
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="169"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="170"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="170"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="170"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="A9" s="177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="158" t="n">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c r="A11" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c r="A12" s="106"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c r="A13" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c r="A14" s="160"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" s="160"/>
+      <c r="B15" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="160"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" s="160"/>
+      <c r="B17" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c r="A18" s="160"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="A19" s="160"/>
+      <c r="B19" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="122" t="n">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="20" ht="54.75" customHeight="1">
+      <c r="A20" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="122" t="n">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="21" ht="27.75" customHeight="1">
+      <c r="A21" s="142"/>
+      <c r="B21" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="153" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c r="A22" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="161" t="n">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c r="A23" s="127"/>
+      <c r="B23" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="162"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="129"/>
+      <c r="B24" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="94"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="163"/>
+    </row>
+    <row r="25" ht="27.75" customHeight="1">
+      <c r="A25" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="164" t="n">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c r="A26" s="80"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="133"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+    </row>
+    <row r="27" ht="54.75" customHeight="1">
+      <c r="A27" s="80"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="122" t="n">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="28" ht="27.75" customHeight="1">
+      <c r="A28" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="122" t="n">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="29" ht="32.25" customHeight="1">
+      <c r="A29" s="106"/>
+      <c r="B29" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="161" t="n">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="30" ht="35.25" customHeight="1">
+      <c r="A30" s="148" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="174" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" ht="35.25" customHeight="1">
+      <c r="A31" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="167" t="n">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" s="150"/>
+      <c r="B32" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.9990234375" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="19.7490234375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.998046875" customWidth="1"/>
+    <col min="7" max="7" width="15.9990234375" customWidth="1"/>
+    <col min="8" max="8" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1">
+      <c r="A1" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1">
+      <c r="A2" s="69"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="123"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="123"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="100"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" ht="140.25" customHeight="1">
+      <c r="A9" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="181" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="70" t="n">
+        <v>45709</v>
+      </c>
+      <c r="F9" s="126"/>
+      <c r="G9" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="126"/>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="79"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1"/>
+    <row r="12" ht="16.5" customHeight="1"/>
+    <row r="13" ht="16.5" customHeight="1">
+      <c r="A13" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.9990234375" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
     <col min="1" max="1" width="0.9990234375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="22.623046875" customWidth="1"/>
@@ -1897,216 +3325,222 @@
   </cols>
   <sheetData>
     <row r="1" ht="6" customHeight="1">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="99"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="99"/>
+      <c r="C4" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="79"/>
+      <c r="C5" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="79"/>
+      <c r="C6" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="79"/>
+      <c r="C7" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="79"/>
+      <c r="C8" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="E9" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="F9" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="76" t="s">
-        <v>18</v>
+      <c r="G9" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="110.25" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="83"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="68"/>
+      <c r="I10" s="104"/>
     </row>
     <row r="11" ht="34.5" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="102"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" ht="126" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="66"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" ht="91.5" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="184" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="185" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2131,7 +3565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2142,346 +3576,346 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.9990234375" customWidth="1" style="49"/>
-    <col min="2" max="2" width="25.3330078125" customWidth="1" style="49"/>
-    <col min="3" max="3" width="41.4990234375" customWidth="1" style="49"/>
-    <col min="4" max="4" width="61.998046875" customWidth="1" style="49"/>
-    <col min="5" max="5" width="14.15625" customWidth="1" style="49"/>
-    <col min="6" max="6" width="12" customWidth="1" style="49"/>
-    <col min="7" max="7" width="47.1650390625" customWidth="1" style="48"/>
-    <col min="8" max="9" width="16.3916015625" customWidth="1" style="48"/>
+    <col min="1" max="1" width="0.9990234375" customWidth="1" style="48"/>
+    <col min="2" max="2" width="25.3330078125" customWidth="1" style="48"/>
+    <col min="3" max="3" width="41.4990234375" customWidth="1" style="48"/>
+    <col min="4" max="4" width="61.998046875" customWidth="1" style="48"/>
+    <col min="5" max="5" width="14.15625" customWidth="1" style="48"/>
+    <col min="6" max="6" width="12" customWidth="1" style="48"/>
+    <col min="7" max="7" width="47.1650390625" customWidth="1" style="47"/>
+    <col min="8" max="9" width="16.3916015625" customWidth="1" style="47"/>
   </cols>
   <sheetData>
     <row r="1" ht="5" customHeight="1"/>
     <row r="2" ht="13.5" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+        <v>132</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" ht="29" customHeight="1">
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="C4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="C5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="C6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="C8" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
     </row>
     <row r="9" ht="40" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="F9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="98" t="s">
-        <v>18</v>
+      <c r="G9" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="120" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1">
-      <c r="B10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="B10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" ht="41.25" customHeight="1">
-      <c r="B11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="B11" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" ht="37" customHeight="1">
-      <c r="B12" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="B12" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" ht="39" customHeight="1">
-      <c r="B13" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="B13" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" ht="31" customHeight="1">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" ht="36" customHeight="1">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" ht="38" customHeight="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" ht="52" customHeight="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44" t="n">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="n">
         <v>45757</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" ht="52.5" customHeight="1">
-      <c r="B18" s="40"/>
-      <c r="C18" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" ht="52.5" customHeight="1">
-      <c r="B19" s="40"/>
-      <c r="C19" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="186" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" ht="52.5" customHeight="1">
-      <c r="B20" s="40"/>
-      <c r="C20" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" ht="52.5" customHeight="1">
-      <c r="B21" s="40"/>
-      <c r="C21" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="120" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="187" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" ht="52.5" customHeight="1">
-      <c r="B22" s="40"/>
-      <c r="C22" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2502,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2513,296 +3947,296 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.9990234375" customWidth="1" style="49"/>
-    <col min="2" max="2" width="22.3330078125" customWidth="1" style="49"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1" style="49"/>
-    <col min="4" max="4" width="51" customWidth="1" style="49"/>
-    <col min="5" max="5" width="11.4140625" customWidth="1" style="109"/>
-    <col min="6" max="6" width="10.166015625" style="109"/>
-    <col min="7" max="7" width="52.8310546875" style="48"/>
+    <col min="1" max="1" width="0.9990234375" customWidth="1" style="48"/>
+    <col min="2" max="2" width="22.3330078125" customWidth="1" style="48"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1" style="48"/>
+    <col min="4" max="4" width="51" customWidth="1" style="48"/>
+    <col min="5" max="5" width="11.4140625" customWidth="1" style="140"/>
+    <col min="6" max="6" width="10.166015625" style="140"/>
+    <col min="7" max="7" width="52.8310546875" style="47"/>
     <col min="8" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="5" customHeight="1"/>
     <row r="2" ht="13.5" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+        <v>170</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" ht="29" customHeight="1">
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="C4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="C5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="C6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
+      <c r="C7" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="104"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="99"/>
+      <c r="C8" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="123"/>
     </row>
     <row r="9" ht="40" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="38.25" customHeight="1">
-      <c r="B10" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="55" t="n">
+      <c r="G9" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="137" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" ht="64.5" customHeight="1">
+      <c r="B10" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="189" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="58" t="n">
         <v>45703</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-    </row>
-    <row r="11" ht="41.25" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="55" t="n">
+      <c r="G10" s="190" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+    </row>
+    <row r="11" ht="51.75" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="58" t="n">
         <v>45703</v>
       </c>
-      <c r="G11" s="123" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="G11" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="B12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="55" t="n">
+      <c r="B12" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="58" t="n">
         <v>45696</v>
       </c>
-      <c r="G12" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
+      <c r="G12" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="B13" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="55" t="n">
+      <c r="B13" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="58" t="n">
         <v>45708</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="55" t="n">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="58" t="n">
         <v>45708</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-    </row>
-    <row r="15" ht="42" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="55" t="n">
+      <c r="G14" s="86"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" ht="66.75" customHeight="1">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="58" t="n">
         <v>45703</v>
       </c>
-      <c r="G15" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
+      <c r="G15" s="192" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" ht="52.5" customHeight="1">
-      <c r="B16" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="56" t="n">
+      <c r="B16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="193" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="59" t="n">
         <v>45698</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="B17" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
+      <c r="B17" s="194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2823,7 +4257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2834,12 +4268,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.9990234375" customWidth="1" style="49"/>
-    <col min="2" max="2" width="24" customWidth="1" style="49"/>
-    <col min="3" max="3" width="42.6650390625" customWidth="1" style="49"/>
-    <col min="4" max="4" width="51.9990234375" customWidth="1" style="49"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" style="49"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" style="109"/>
+    <col min="1" max="1" width="0.9990234375" customWidth="1" style="48"/>
+    <col min="2" max="2" width="24" customWidth="1" style="48"/>
+    <col min="3" max="3" width="42.6650390625" customWidth="1" style="48"/>
+    <col min="4" max="4" width="51.9990234375" customWidth="1" style="48"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1" style="48"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" style="140"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="15.123046875" customWidth="1"/>
   </cols>
@@ -2847,292 +4281,292 @@
     <row r="1" ht="5" customHeight="1"/>
     <row r="2" ht="13.5" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+        <v>199</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" ht="29" customHeight="1">
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
+      <c r="C4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
+      <c r="C5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
+      <c r="C6" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="C7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="C8" s="139" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="9" ht="40" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>18</v>
+      <c r="F9" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="143" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="69" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F10" s="141" t="n">
         <v>45696</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" ht="45" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F11" s="141" t="n">
         <v>45696</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" ht="48.75" customHeight="1">
       <c r="B12" s="11" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F12" s="141" t="n">
         <v>45705</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" ht="45.75" customHeight="1">
       <c r="B13" s="12" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F13" s="141" t="n">
         <v>45705</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="12" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F14" s="141" t="n">
         <v>45705</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F15" s="141" t="n">
         <v>45698</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F16" s="141" t="n">
         <v>45698</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F17" s="141" t="n">
         <v>45696</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="110" t="n">
+        <v>207</v>
+      </c>
+      <c r="F18" s="141" t="n">
         <v>45698</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="6">
